--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="11_5A81ED5323ABBB538F7231002AC4FA02FDE9485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6819D16-5BBD-49B4-900B-387100070201}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="11_5A81ED5323ABBB538F7231002AC4FA02FDE9485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47DA76E-8D6B-4D09-B12D-A2944D0E5070}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="620" windowWidth="27860" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>Pour le CSS, certains sites comme minify.org réduisent la taille des fichiers CSS pour alléger le chargement de la page. Pour le Javascript : indiquer "Async" ou "Defer" pour que les robots de Google puissent crawler le site aisément.</t>
   </si>
   <si>
-    <t>Images allégées et indications "Defer mentionnées"</t>
+    <t>Images allégées et converties du format jpeg à bmp et indications "Defer mentionnées"</t>
   </si>
   <si>
     <t>SEO + accessibilité</t>
